--- a/Plaxisfiles/benchmark/Structural Forces D_200.xlsx
+++ b/Plaxisfiles/benchmark/Structural Forces D_200.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FKMV\Desktop\COPCAT_branch\COPCATPlaxis\Plaxisfiles\Loc_69L\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\work1\004 EW\Cospin - EW1\output\loc69_L_42m\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCE3886-79A6-47CC-AFC4-4C1BED31270D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BBA3C7-A277-4AAA-B68A-CCDE3C9EDAD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -181,8 +181,93 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pile Displacement'!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.2999999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7200000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6740000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8510546701288203E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>M!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>23327.390194899901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44177.847773886002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63119.076311377299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81273.296585024305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115587.394210807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212693.27290825301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>368209.08845212398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>588605.28555795399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>725154.08582297701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-603F-4011-819D-0F81530CCBAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -226,51 +311,24 @@
                   <c:v>3.6740000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8500000000000001E-2</c:v>
+                  <c:v>4.8510546701288203E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>M!$B$4:$J$4</c:f>
+              <c:f>M!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>15377.306965337801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31807.8541337809</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48238.401302224003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>65090.244551909302</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99425.875173142995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>210648.040621066</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>366874.85903678602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>586255.38648669003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>722980.40425762697</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4028-47EA-8B59-E2A2B0A2476A}"/>
+              <c16:uniqueId val="{00000002-603F-4011-819D-0F81530CCBAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -340,7 +398,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="623649664"/>
@@ -402,47 +460,19 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="623647368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -450,7 +480,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -501,7 +531,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -512,8 +542,279 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>M!$J$4:$J$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>725154.08582297701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>736240.64521454601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>755252.57405903295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>766222.21127848199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>775527.09887289396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>780321.05022017704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>784260.08215905004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>784748.72608782398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>782365.499455543</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>777102.63471085997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>768093.824668154</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>756269.86355461704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>741762.07742876804</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>726556.49476983305</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>706678.70124410104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>686617.93957647798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>664793.60650403099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>641357.908689106</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>616467.42777020799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>590282.40900480398</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>562966.20683493104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>534684.94107254001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>505607.45380790101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>475905.72503925703</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>445756.04330465099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>415293.52820405702</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>382344.84515801503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>349144.22650060698</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>299788.49927605898</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>251999.42933864699</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>221466.10607598801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>192249.16867565899</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>164534.216985726</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>138483.10670868101</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>102817.26701802301</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71699.121246237206</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52029.012903785399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39230.388520526103</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26076.0937076431</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00E+00">
+                  <c:v>2470.0413432908299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>M!$A$4:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-12.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-28.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-35.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-38.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0C7E-423B-A3EF-64FE615E88B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -528,130 +829,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>M!$J$4:$J$43</c:f>
+              <c:f>M!$K$4:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>722980.40425762697</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>767568.38673486596</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>787464.75216399902</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>798934.85991823801</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>808786.56576791103</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>813870.84295598895</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>818151.35820332705</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>818823.86529268301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>816517.15748038702</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>811220.82069892099</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>802009.83486602199</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>789865.01847636199</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>774919.721226088</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>759241.89485796797</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>738699.86512798001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>717958.10225459596</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>695366.94992709905</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>671081.29004557803</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>645260.68115956697</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>618068.65342156496</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>589672.16738186695</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>560241.29272588005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>529949.20074339595</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>498972.63442204398</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>467493.16238691099</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>435631.69099312503</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>401255.04660410498</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>366532.19362350699</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>314773.78848307702</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>264548.856102794</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>232413.218460303</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>201638.36048737701</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>172430.858487991</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>144973.255118061</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>107424.96782089</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>74696.028221474393</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>54117.074307442897</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>40679.797584611799</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>26875.207021472499</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>3307.9675049474399</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -779,7 +960,7 @@
                   <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-41.9</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,7 +968,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F84A-4C81-8FF9-506442A2F0E1}"/>
+              <c16:uniqueId val="{00000002-0C7E-423B-A3EF-64FE615E88B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -857,7 +1038,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="549430352"/>
@@ -919,47 +1100,19 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="549430680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -967,7 +1120,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1018,7 +1171,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1029,8 +1182,93 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pile Displacement'!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.2999999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7200000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6740000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8510546701288203E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pile Displacement'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>285.48067263346701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>540.648636329032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>772.45144916874006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>994.62285246571003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1414.55888427953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2602.9409251162901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4506.1439519303703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7203.3532869628998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8874.4379227175796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-67A9-4C96-9BF2-E464D2B884F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1074,51 +1312,24 @@
                   <c:v>3.6740000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8500000000000001E-2</c:v>
+                  <c:v>4.8510546701288203E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Pile Displacement'!$B$1:$J$1</c:f>
+              <c:f>'Pile Displacement'!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>188.187529726994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>389.26461628460498</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>590.341702842215</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>796.57461213207205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1216.7741648101601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2577.91136612321</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4489.8156482600598</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7174.5952149333998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8847.8364010650293</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DE7-40E4-9805-C5FE32A4800E}"/>
+              <c16:uniqueId val="{00000002-67A9-4C96-9BF2-E464D2B884F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1188,7 +1399,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="623649664"/>
@@ -1250,47 +1461,19 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="623647368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1298,7 +1481,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1349,7 +1532,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1381,124 +1564,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>4.8500000000000001E-2</c:v>
+                  <c:v>4.8510546701288203E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>4.6155459411592097E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3955780409299601E-2</c:v>
+                  <c:v>4.14648862245489E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0484767145653598E-2</c:v>
+                  <c:v>3.8161203382569099E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6520057281856103E-2</c:v>
+                  <c:v>3.4393323603857301E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3998591344265298E-2</c:v>
+                  <c:v>3.1996204386180498E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.09786832225354E-2</c:v>
+                  <c:v>2.9128929333842202E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8125625501601598E-2</c:v>
+                  <c:v>2.6420648570714501E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5431577043113201E-2</c:v>
+                  <c:v>2.3864919005042898E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.289624601882E-2</c:v>
+                  <c:v>2.1461406120219999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.05278738861823E-2</c:v>
+                  <c:v>1.9217558644995102E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.83152437142408E-2</c:v>
+                  <c:v>1.7122925762935101E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6255180497931E-2</c:v>
+                  <c:v>1.51744037270241E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.45257460269824E-2</c:v>
+                  <c:v>1.3541127292599301E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.25641499434528E-2</c:v>
+                  <c:v>1.1688114946207299E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0922488498028401E-2</c:v>
+                  <c:v>1.01400346731129E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.4131554515463605E-3</c:v>
+                  <c:v>8.7185474866997102E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.0311202311748996E-3</c:v>
+                  <c:v>7.4187640011071504E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7710405701415302E-3</c:v>
+                  <c:v>6.2354983446865804E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6272946731430297E-3</c:v>
+                  <c:v>5.1633000079196198E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5940125849367099E-3</c:v>
+                  <c:v>4.1964849100483001E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.6651061883065301E-3</c:v>
+                  <c:v>3.32916512888986E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.8342969685875101E-3</c:v>
+                  <c:v>2.5552764589366101E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.0951401349524998E-3</c:v>
+                  <c:v>1.8686024324484601E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.44104256675496E-3</c:v>
+                  <c:v>1.26279234619002E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.6526948283988504E-4</c:v>
+                  <c:v>7.31368321614251E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.8155077241735401E-4</c:v>
+                  <c:v>2.8759638691419398E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>-3.5007347022693403E-5</c:v>
+                  <c:v>-9.2853762792342501E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-5.5500051250014502E-4</c:v>
+                  <c:v>-5.6470041706996701E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-9.7617328845432997E-4</c:v>
+                  <c:v>-9.4373642218898801E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.21551971208642E-3</c:v>
+                  <c:v>-1.15725108274402E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.43028220421634E-3</c:v>
+                  <c:v>-1.34754183481318E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.6272110954697501E-3</c:v>
+                  <c:v>-1.5209264156750199E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.8125662537987199E-3</c:v>
+                  <c:v>-1.68324361002945E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.0814672707140801E-3</c:v>
+                  <c:v>-1.91762675893376E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.3550944242404998E-3</c:v>
+                  <c:v>-2.15565031293782E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.5678063367255899E-3</c:v>
+                  <c:v>-2.3409462003589399E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.7625934740382599E-3</c:v>
+                  <c:v>-2.5121868677271402E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2.9833195344037E-3</c:v>
+                  <c:v>-2.7063777466183199E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-3.4247678159766899E-3</c:v>
+                  <c:v>-3.1169025786630098E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,7 +1810,7 @@
                   <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-41.9</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,7 +1888,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="661219176"/>
@@ -1767,7 +1950,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="661222456"/>
@@ -1815,7 +1998,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1866,1675 +2049,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4133,13 +2648,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4169,13 +2684,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -4529,9 +3044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4540,31 +3053,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>188.187529726994</v>
+        <v>285.48067263346701</v>
       </c>
       <c r="C1" s="1">
-        <v>389.26461628460498</v>
+        <v>540.648636329032</v>
       </c>
       <c r="D1" s="1">
-        <v>590.341702842215</v>
+        <v>772.45144916874006</v>
       </c>
       <c r="E1" s="1">
-        <v>796.57461213207205</v>
+        <v>994.62285246571003</v>
       </c>
       <c r="F1" s="1">
-        <v>1216.7741648101601</v>
+        <v>1414.55888427953</v>
       </c>
       <c r="G1" s="1">
-        <v>2577.91136612321</v>
+        <v>2602.9409251162901</v>
       </c>
       <c r="H1" s="1">
-        <v>4489.8156482600598</v>
+        <v>4506.1439519303703</v>
       </c>
       <c r="I1" s="1">
-        <v>7174.5952149333998</v>
+        <v>7203.3532869628998</v>
       </c>
       <c r="J1" s="1">
-        <v>8847.8364010650293</v>
+        <v>8874.4379227175796</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4600,7 +3113,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
@@ -4632,7 +3145,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>-0.65</v>
       </c>
       <c r="B5">
@@ -4664,7 +3177,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>-2</v>
       </c>
       <c r="B6">
@@ -4696,7 +3209,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>-3</v>
       </c>
       <c r="B7">
@@ -4728,7 +3241,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>-4.2</v>
       </c>
       <c r="B8">
@@ -4760,7 +3273,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>-5</v>
       </c>
       <c r="B9">
@@ -4792,7 +3305,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>-6</v>
       </c>
       <c r="B10">
@@ -4824,7 +3337,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>-7</v>
       </c>
       <c r="B11">
@@ -4856,7 +3369,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>-8</v>
       </c>
       <c r="B12">
@@ -4888,7 +3401,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>-9</v>
       </c>
       <c r="B13">
@@ -4920,7 +3433,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>-10</v>
       </c>
       <c r="B14">
@@ -4952,7 +3465,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>-11</v>
       </c>
       <c r="B15">
@@ -4984,7 +3497,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>-12</v>
       </c>
       <c r="B16">
@@ -5016,7 +3529,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>-12.9</v>
       </c>
       <c r="B17">
@@ -5048,7 +3561,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>-14</v>
       </c>
       <c r="B18">
@@ -5080,7 +3593,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>-15</v>
       </c>
       <c r="B19">
@@ -5112,7 +3625,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>-16</v>
       </c>
       <c r="B20">
@@ -5144,7 +3657,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>-17</v>
       </c>
       <c r="B21">
@@ -5176,7 +3689,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>-18</v>
       </c>
       <c r="B22">
@@ -5208,7 +3721,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>-19</v>
       </c>
       <c r="B23">
@@ -5240,7 +3753,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>-20</v>
       </c>
       <c r="B24">
@@ -5272,7 +3785,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>-21</v>
       </c>
       <c r="B25">
@@ -5304,7 +3817,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>-22</v>
       </c>
       <c r="B26">
@@ -5336,7 +3849,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>-23</v>
       </c>
       <c r="B27">
@@ -5368,7 +3881,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>-24</v>
       </c>
       <c r="B28">
@@ -5400,7 +3913,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>-25</v>
       </c>
       <c r="B29">
@@ -5432,7 +3945,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>-26</v>
       </c>
       <c r="B30">
@@ -5464,7 +3977,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>-27</v>
       </c>
       <c r="B31">
@@ -5496,7 +4009,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>-28.5</v>
       </c>
       <c r="B32">
@@ -5528,7 +4041,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>-30</v>
       </c>
       <c r="B33">
@@ -5560,7 +4073,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>-31</v>
       </c>
       <c r="B34">
@@ -5592,7 +4105,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>-32</v>
       </c>
       <c r="B35">
@@ -5624,7 +4137,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>-33</v>
       </c>
       <c r="B36">
@@ -5656,7 +4169,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>-34</v>
       </c>
       <c r="B37">
@@ -5688,7 +4201,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>-35.5</v>
       </c>
       <c r="B38">
@@ -5720,7 +4233,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>-37</v>
       </c>
       <c r="B39">
@@ -5752,7 +4265,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>-38.1</v>
       </c>
       <c r="B40">
@@ -5784,7 +4297,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>-39</v>
       </c>
       <c r="B41">
@@ -5816,7 +4329,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>-40</v>
       </c>
       <c r="B42">
@@ -5848,8 +4361,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>-41</v>
+      <c r="A43" s="1">
+        <v>-42</v>
       </c>
       <c r="B43">
         <v>-41576.389152382268</v>
@@ -5888,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" activeCellId="1" sqref="B4:J4 K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5899,31 +4412,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>188.187529726994</v>
+        <v>285.48067263346701</v>
       </c>
       <c r="C1" s="1">
-        <v>389.26461628460498</v>
+        <v>540.648636329032</v>
       </c>
       <c r="D1" s="1">
-        <v>590.341702842215</v>
+        <v>772.45144916874006</v>
       </c>
       <c r="E1" s="1">
-        <v>796.57461213207205</v>
+        <v>994.62285246571003</v>
       </c>
       <c r="F1" s="1">
-        <v>1216.7741648101601</v>
+        <v>1414.55888427953</v>
       </c>
       <c r="G1" s="1">
-        <v>2577.91136612321</v>
+        <v>2602.9409251162901</v>
       </c>
       <c r="H1" s="1">
-        <v>4489.8156482600598</v>
+        <v>4506.1439519303703</v>
       </c>
       <c r="I1" s="1">
-        <v>7174.5952149333998</v>
+        <v>7203.3532869628998</v>
       </c>
       <c r="J1" s="1">
-        <v>8847.8364010650293</v>
+        <v>8874.4379227175796</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5959,48 +4472,48 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4">
-        <f>B1*-2</f>
-        <v>-376.375059453988</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:J4" si="0">C1*-2</f>
-        <v>-778.52923256920997</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1">
+        <f>B1</f>
+        <v>285.48067263346701</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:J4" si="0">C1</f>
+        <v>540.648636329032</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>-1180.68340568443</v>
-      </c>
-      <c r="E4">
+        <v>772.45144916874006</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>-1593.1492242641441</v>
-      </c>
-      <c r="F4">
+        <v>994.62285246571003</v>
+      </c>
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-2433.5483296203201</v>
-      </c>
-      <c r="G4">
+        <v>1414.55888427953</v>
+      </c>
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>-5155.8227322464199</v>
-      </c>
-      <c r="H4">
+        <v>2602.9409251162901</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>-8979.6312965201196</v>
-      </c>
-      <c r="I4">
+        <v>4506.1439519303703</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>-14349.1904298668</v>
-      </c>
-      <c r="J4">
+        <v>7203.3532869628998</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>-17695.672802130059</v>
+        <v>8874.4379227175796</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>-0.65</v>
       </c>
       <c r="B5">
@@ -6032,7 +4545,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>-2</v>
       </c>
       <c r="B6">
@@ -6064,7 +4577,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>-3</v>
       </c>
       <c r="B7">
@@ -6096,7 +4609,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>-4.2</v>
       </c>
       <c r="B8">
@@ -6128,7 +4641,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>-5</v>
       </c>
       <c r="B9">
@@ -6160,7 +4673,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>-6</v>
       </c>
       <c r="B10">
@@ -6192,7 +4705,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>-7</v>
       </c>
       <c r="B11">
@@ -6224,7 +4737,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>-8</v>
       </c>
       <c r="B12">
@@ -6256,7 +4769,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>-9</v>
       </c>
       <c r="B13">
@@ -6288,7 +4801,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>-10</v>
       </c>
       <c r="B14">
@@ -6320,7 +4833,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>-11</v>
       </c>
       <c r="B15">
@@ -6352,7 +4865,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>-12</v>
       </c>
       <c r="B16">
@@ -6384,7 +4897,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>-12.9</v>
       </c>
       <c r="B17">
@@ -6416,7 +4929,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>-14</v>
       </c>
       <c r="B18">
@@ -6448,7 +4961,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>-15</v>
       </c>
       <c r="B19">
@@ -6480,7 +4993,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>-16</v>
       </c>
       <c r="B20">
@@ -6512,7 +5025,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>-17</v>
       </c>
       <c r="B21">
@@ -6544,7 +5057,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>-18</v>
       </c>
       <c r="B22">
@@ -6576,7 +5089,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>-19</v>
       </c>
       <c r="B23">
@@ -6608,7 +5121,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>-20</v>
       </c>
       <c r="B24">
@@ -6640,7 +5153,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>-21</v>
       </c>
       <c r="B25">
@@ -6672,7 +5185,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>-22</v>
       </c>
       <c r="B26">
@@ -6704,7 +5217,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>-23</v>
       </c>
       <c r="B27">
@@ -6736,7 +5249,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>-24</v>
       </c>
       <c r="B28">
@@ -6768,7 +5281,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>-25</v>
       </c>
       <c r="B29">
@@ -6800,7 +5313,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>-26</v>
       </c>
       <c r="B30">
@@ -6832,7 +5345,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>-27</v>
       </c>
       <c r="B31">
@@ -6864,7 +5377,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>-28.5</v>
       </c>
       <c r="B32">
@@ -6896,7 +5409,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>-30</v>
       </c>
       <c r="B33">
@@ -6928,7 +5441,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>-31</v>
       </c>
       <c r="B34">
@@ -6960,7 +5473,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>-32</v>
       </c>
       <c r="B35">
@@ -6992,7 +5505,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>-33</v>
       </c>
       <c r="B36">
@@ -7024,7 +5537,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>-34</v>
       </c>
       <c r="B37">
@@ -7056,7 +5569,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>-35.5</v>
       </c>
       <c r="B38">
@@ -7088,7 +5601,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>-37</v>
       </c>
       <c r="B39">
@@ -7120,7 +5633,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>-38.1</v>
       </c>
       <c r="B40">
@@ -7152,7 +5665,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>-39</v>
       </c>
       <c r="B41">
@@ -7184,7 +5697,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>-40</v>
       </c>
       <c r="B42">
@@ -7216,8 +5729,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>-41</v>
+      <c r="A43" s="1">
+        <v>-42</v>
       </c>
       <c r="B43">
         <v>11.90412056635307</v>
@@ -7256,8 +5769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7267,31 +5780,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>188.187529726994</v>
+        <v>285.48067263346701</v>
       </c>
       <c r="C1" s="1">
-        <v>389.26461628460498</v>
+        <v>540.648636329032</v>
       </c>
       <c r="D1" s="1">
-        <v>590.341702842215</v>
+        <v>772.45144916874006</v>
       </c>
       <c r="E1" s="1">
-        <v>796.57461213207205</v>
+        <v>994.62285246571003</v>
       </c>
       <c r="F1" s="1">
-        <v>1216.7741648101601</v>
+        <v>1414.55888427953</v>
       </c>
       <c r="G1" s="1">
-        <v>2577.91136612321</v>
+        <v>2602.9409251162901</v>
       </c>
       <c r="H1" s="1">
-        <v>4489.8156482600598</v>
+        <v>4506.1439519303703</v>
       </c>
       <c r="I1" s="1">
-        <v>7174.5952149333998</v>
+        <v>7203.3532869628998</v>
       </c>
       <c r="J1" s="1">
-        <v>8847.8364010650293</v>
+        <v>8874.4379227175796</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7331,31 +5844,31 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>15377.306965337801</v>
+        <v>23327.390194899901</v>
       </c>
       <c r="C4" s="1">
-        <v>31807.8541337809</v>
+        <v>44177.847773886002</v>
       </c>
       <c r="D4" s="1">
-        <v>48238.401302224003</v>
+        <v>63119.076311377299</v>
       </c>
       <c r="E4" s="1">
-        <v>65090.244551909302</v>
+        <v>81273.296585024305</v>
       </c>
       <c r="F4" s="1">
-        <v>99425.875173142995</v>
+        <v>115587.394210807</v>
       </c>
       <c r="G4" s="1">
-        <v>210648.040621066</v>
+        <v>212693.27290825301</v>
       </c>
       <c r="H4" s="1">
-        <v>366874.85903678602</v>
+        <v>368209.08845212398</v>
       </c>
       <c r="I4" s="1">
-        <v>586255.38648669003</v>
+        <v>588605.28555795399</v>
       </c>
       <c r="J4" s="1">
-        <v>722980.40425762697</v>
+        <v>725154.08582297701</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7387,7 +5900,7 @@
         <v>346416.52446662751</v>
       </c>
       <c r="J5" s="1">
-        <v>767568.38673486596</v>
+        <v>736240.64521454601</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7419,7 +5932,7 @@
         <v>353901.27529285441</v>
       </c>
       <c r="J6" s="1">
-        <v>787464.75216399902</v>
+        <v>755252.57405903295</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7451,7 +5964,7 @@
         <v>357867.39293795638</v>
       </c>
       <c r="J7" s="1">
-        <v>798934.85991823801</v>
+        <v>766222.21127848199</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -7483,7 +5996,7 @@
         <v>360126.7307832705</v>
       </c>
       <c r="J8" s="1">
-        <v>808786.56576791103</v>
+        <v>775527.09887289396</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -7515,7 +6028,7 @@
         <v>360828.88347515522</v>
       </c>
       <c r="J9" s="1">
-        <v>813870.84295598895</v>
+        <v>780321.05022017704</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -7547,7 +6060,7 @@
         <v>360318.12306284829</v>
       </c>
       <c r="J10" s="1">
-        <v>818151.35820332705</v>
+        <v>784260.08215905004</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -7579,7 +6092,7 @@
         <v>357237.10355313198</v>
       </c>
       <c r="J11" s="1">
-        <v>818823.86529268301</v>
+        <v>784748.72608782398</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7611,7 +6124,7 @@
         <v>352031.03456615511</v>
       </c>
       <c r="J12" s="1">
-        <v>816517.15748038702</v>
+        <v>782365.499455543</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7643,7 +6156,7 @@
         <v>344629.54409876972</v>
       </c>
       <c r="J13" s="1">
-        <v>811220.82069892099</v>
+        <v>777102.63471085997</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7675,7 +6188,7 @@
         <v>334693.4836831743</v>
       </c>
       <c r="J14" s="1">
-        <v>802009.83486602199</v>
+        <v>768093.824668154</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -7707,7 +6220,7 @@
         <v>322588.70153900387</v>
       </c>
       <c r="J15" s="1">
-        <v>789865.01847636199</v>
+        <v>756269.86355461704</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7739,7 +6252,7 @@
         <v>308400.97992808011</v>
       </c>
       <c r="J16" s="1">
-        <v>774919.721226088</v>
+        <v>741762.07742876804</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -7771,7 +6284,7 @@
         <v>294213.57476153062</v>
       </c>
       <c r="J17" s="1">
-        <v>759241.89485796797</v>
+        <v>726556.49476983305</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7803,7 +6316,7 @@
         <v>280188.38297778828</v>
       </c>
       <c r="J18" s="1">
-        <v>738699.86512798001</v>
+        <v>706678.70124410104</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -7835,7 +6348,7 @@
         <v>267206.54531538731</v>
       </c>
       <c r="J19" s="1">
-        <v>717958.10225459596</v>
+        <v>686617.93957647798</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -7867,7 +6380,7 @@
         <v>254032.5713588502</v>
       </c>
       <c r="J20" s="1">
-        <v>695366.94992709905</v>
+        <v>664793.60650403099</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -7899,7 +6412,7 @@
         <v>240695.9004624201</v>
       </c>
       <c r="J21" s="1">
-        <v>671081.29004557803</v>
+        <v>641357.908689106</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7931,7 +6444,7 @@
         <v>227232.4829034612</v>
       </c>
       <c r="J22" s="1">
-        <v>645260.68115956697</v>
+        <v>616467.42777020799</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -7963,7 +6476,7 @@
         <v>213683.50758799689</v>
       </c>
       <c r="J23" s="1">
-        <v>618068.65342156496</v>
+        <v>590282.40900480398</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -7995,7 +6508,7 @@
         <v>200092.48202018169</v>
       </c>
       <c r="J24" s="1">
-        <v>589672.16738186695</v>
+        <v>562966.20683493104</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -8027,7 +6540,7 @@
         <v>186496.98240694299</v>
       </c>
       <c r="J25" s="1">
-        <v>560241.29272588005</v>
+        <v>534684.94107254001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -8059,7 +6572,7 @@
         <v>172928.1356704288</v>
       </c>
       <c r="J26" s="1">
-        <v>529949.20074339595</v>
+        <v>505607.45380790101</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -8091,7 +6604,7 @@
         <v>159411.3357486311</v>
       </c>
       <c r="J27" s="1">
-        <v>498972.63442204398</v>
+        <v>475905.72503925703</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -8123,7 +6636,7 @@
         <v>145964.08501481131</v>
       </c>
       <c r="J28" s="1">
-        <v>467493.16238691099</v>
+        <v>445756.04330465099</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -8155,7 +6668,7 @@
         <v>132595.28875467641</v>
       </c>
       <c r="J29" s="1">
-        <v>435631.69099312503</v>
+        <v>415293.52820405702</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -8187,7 +6700,7 @@
         <v>118896.09589917189</v>
       </c>
       <c r="J30" s="1">
-        <v>401255.04660410498</v>
+        <v>382344.84515801503</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -8219,7 +6732,7 @@
         <v>105580.524049267</v>
       </c>
       <c r="J31" s="1">
-        <v>366532.19362350699</v>
+        <v>349144.22650060698</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -8251,7 +6764,7 @@
         <v>86538.514633930885</v>
       </c>
       <c r="J32" s="1">
-        <v>314773.78848307702</v>
+        <v>299788.49927605898</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -8283,7 +6796,7 @@
         <v>68833.171572660678</v>
       </c>
       <c r="J33" s="1">
-        <v>264548.856102794</v>
+        <v>251999.42933864699</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -8315,7 +6828,7 @@
         <v>57899.223725090284</v>
       </c>
       <c r="J34" s="1">
-        <v>232413.218460303</v>
+        <v>221466.10607598801</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -8347,7 +6860,7 @@
         <v>47710.503240409227</v>
       </c>
       <c r="J35" s="1">
-        <v>201638.36048737701</v>
+        <v>192249.16867565899</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -8379,7 +6892,7 @@
         <v>38345.425130480449</v>
       </c>
       <c r="J36" s="1">
-        <v>172430.858487991</v>
+        <v>164534.216985726</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -8411,7 +6924,7 @@
         <v>29875.723356383322</v>
       </c>
       <c r="J37" s="1">
-        <v>144973.255118061</v>
+        <v>138483.10670868101</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -8443,7 +6956,7 @@
         <v>19009.536058423972</v>
       </c>
       <c r="J38" s="1">
-        <v>107424.96782089</v>
+        <v>102817.26701802301</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -8475,7 +6988,7 @@
         <v>10645.342174979511</v>
       </c>
       <c r="J39" s="1">
-        <v>74696.028221474393</v>
+        <v>71699.121246237206</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -8507,7 +7020,7 @@
         <v>6383.6081171480328</v>
       </c>
       <c r="J40" s="1">
-        <v>54117.074307442897</v>
+        <v>52029.012903785399</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -8539,7 +7052,7 @@
         <v>3892.4510207455692</v>
       </c>
       <c r="J41" s="1">
-        <v>40679.797584611799</v>
+        <v>39230.388520526103</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -8571,12 +7084,12 @@
         <v>1811.953155936443</v>
       </c>
       <c r="J42" s="1">
-        <v>26875.207021472499</v>
+        <v>26076.0937076431</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>-41.9</v>
+        <v>-42</v>
       </c>
       <c r="B43">
         <v>15.621744132176451</v>
@@ -8603,7 +7116,7 @@
         <v>633.43270461013333</v>
       </c>
       <c r="J43" s="3">
-        <v>3307.9675049474399</v>
+        <v>2470.0413432908299</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -8617,10 +7130,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8630,31 +7143,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>188.187529726994</v>
+        <v>285.48067263346701</v>
       </c>
       <c r="C1" s="1">
-        <v>389.26461628460498</v>
+        <v>540.648636329032</v>
       </c>
       <c r="D1" s="1">
-        <v>590.341702842215</v>
+        <v>772.45144916874006</v>
       </c>
       <c r="E1" s="1">
-        <v>796.57461213207205</v>
+        <v>994.62285246571003</v>
       </c>
       <c r="F1" s="1">
-        <v>1216.7741648101601</v>
+        <v>1414.55888427953</v>
       </c>
       <c r="G1" s="1">
-        <v>2577.91136612321</v>
+        <v>2602.9409251162901</v>
       </c>
       <c r="H1" s="1">
-        <v>4489.8156482600598</v>
+        <v>4506.1439519303703</v>
       </c>
       <c r="I1" s="1">
-        <v>7174.5952149333998</v>
+        <v>7203.3532869628998</v>
       </c>
       <c r="J1" s="1">
-        <v>8847.8364010650293</v>
+        <v>8874.4379227175796</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8718,7 +7231,7 @@
         <v>3.6740000000000002E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>4.8500000000000001E-2</v>
+        <v>4.8510546701288203E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8750,7 +7263,7 @@
         <v>1.293923985213043E-2</v>
       </c>
       <c r="J5" s="1">
-        <v>4.7E-2</v>
+        <v>4.6155459411592097E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8782,7 +7295,7 @@
         <v>1.15242255851626E-2</v>
       </c>
       <c r="J6" s="1">
-        <v>4.3955780409299601E-2</v>
+        <v>4.14648862245489E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -8814,7 +7327,7 @@
         <v>1.049139071255922E-2</v>
       </c>
       <c r="J7" s="1">
-        <v>4.0484767145653598E-2</v>
+        <v>3.8161203382569099E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -8846,7 +7359,7 @@
         <v>9.2918621376156842E-3</v>
       </c>
       <c r="J8" s="1">
-        <v>3.6520057281856103E-2</v>
+        <v>3.4393323603857301E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8878,7 +7391,7 @@
         <v>8.5342889651656133E-3</v>
       </c>
       <c r="J9" s="1">
-        <v>3.3998591344265298E-2</v>
+        <v>3.1996204386180498E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8910,7 +7423,7 @@
         <v>7.610606495290999E-3</v>
       </c>
       <c r="J10" s="1">
-        <v>3.09786832225354E-2</v>
+        <v>2.9128929333842202E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8942,7 +7455,7 @@
         <v>6.7431600764393798E-3</v>
       </c>
       <c r="J11" s="1">
-        <v>2.8125625501601598E-2</v>
+        <v>2.6420648570714501E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8974,7 +7487,7 @@
         <v>5.970766302198169E-3</v>
       </c>
       <c r="J12" s="1">
-        <v>2.5431577043113201E-2</v>
+        <v>2.3864919005042898E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -9006,7 +7519,7 @@
         <v>5.2562388591468291E-3</v>
       </c>
       <c r="J13" s="1">
-        <v>2.289624601882E-2</v>
+        <v>2.1461406120219999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9038,7 +7551,7 @@
         <v>4.6054488047957464E-3</v>
       </c>
       <c r="J14" s="1">
-        <v>2.05278738861823E-2</v>
+        <v>1.9217558644995102E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9070,7 +7583,7 @@
         <v>4.0330830961465862E-3</v>
       </c>
       <c r="J15" s="1">
-        <v>1.83152437142408E-2</v>
+        <v>1.7122925762935101E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -9102,10 +7615,10 @@
         <v>3.5197488032281368E-3</v>
       </c>
       <c r="J16" s="1">
-        <v>1.6255180497931E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.51744037270241E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>-12.9</v>
       </c>
@@ -9134,10 +7647,10 @@
         <v>3.107870696112517E-3</v>
       </c>
       <c r="J17" s="1">
-        <v>1.45257460269824E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.3541127292599301E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>-14</v>
       </c>
@@ -9166,10 +7679,10 @@
         <v>2.6200641877949212E-3</v>
       </c>
       <c r="J18" s="1">
-        <v>1.25641499434528E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.1688114946207299E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>-15</v>
       </c>
@@ -9198,10 +7711,10 @@
         <v>2.1929962094873181E-3</v>
       </c>
       <c r="J19" s="1">
-        <v>1.0922488498028401E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.01400346731129E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>-16</v>
       </c>
@@ -9230,10 +7743,10 @@
         <v>1.819161232560873E-3</v>
       </c>
       <c r="J20" s="1">
-        <v>9.4131554515463605E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.7185474866997102E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>-17</v>
       </c>
@@ -9262,10 +7775,10 @@
         <v>1.484766486100856E-3</v>
       </c>
       <c r="J21" s="1">
-        <v>8.0311202311748996E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7.4187640011071504E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>-18</v>
       </c>
@@ -9294,10 +7807,10 @@
         <v>1.186047447845337E-3</v>
       </c>
       <c r="J22" s="1">
-        <v>6.7710405701415302E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.2354983446865804E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>-19</v>
       </c>
@@ -9326,10 +7839,10 @@
         <v>9.2854350805282593E-4</v>
       </c>
       <c r="J23" s="1">
-        <v>5.6272946731430297E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5.1633000079196198E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>-20</v>
       </c>
@@ -9358,10 +7871,10 @@
         <v>6.9907848956063357E-4</v>
       </c>
       <c r="J24" s="1">
-        <v>4.5940125849367099E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.1964849100483001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>-21</v>
       </c>
@@ -9390,10 +7903,10 @@
         <v>4.963435931131248E-4</v>
       </c>
       <c r="J25" s="1">
-        <v>3.6651061883065301E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.32916512888986E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>-22</v>
       </c>
@@ -9422,10 +7935,10 @@
         <v>3.1961456988938191E-4</v>
       </c>
       <c r="J26" s="1">
-        <v>2.8342969685875101E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.5552764589366101E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>-23</v>
       </c>
@@ -9454,10 +7967,10 @@
         <v>1.672385697020221E-4</v>
       </c>
       <c r="J27" s="1">
-        <v>2.0951401349524998E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.8686024324484601E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>-24</v>
       </c>
@@ -9486,10 +7999,10 @@
         <v>3.5926936106989113E-5</v>
       </c>
       <c r="J28" s="1">
-        <v>1.44104256675496E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.26279234619002E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>-25</v>
       </c>
@@ -9518,10 +8031,10 @@
         <v>-6.3455256167799194E-5</v>
       </c>
       <c r="J29" s="1">
-        <v>8.6526948283988504E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7.31368321614251E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>-26</v>
       </c>
@@ -9550,10 +8063,10 @@
         <v>-1.3674399815499791E-4</v>
       </c>
       <c r="J30" s="1">
-        <v>3.8155077241735401E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.8759638691419398E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>-27</v>
       </c>
@@ -9582,11 +8095,10 @@
         <v>-1.997526269406084E-4</v>
       </c>
       <c r="J31" s="3">
-        <v>-3.5007347022693403E-5</v>
-      </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-9.2853762792342501E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>-28.5</v>
       </c>
@@ -9615,7 +8127,7 @@
         <v>-2.9001483926549603E-4</v>
       </c>
       <c r="J32" s="1">
-        <v>-5.5500051250014502E-4</v>
+        <v>-5.6470041706996701E-4</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -9647,7 +8159,7 @@
         <v>-3.5573905915953203E-4</v>
       </c>
       <c r="J33" s="1">
-        <v>-9.7617328845432997E-4</v>
+        <v>-9.4373642218898801E-4</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -9679,7 +8191,7 @@
         <v>-3.9933022344484871E-4</v>
       </c>
       <c r="J34" s="1">
-        <v>-1.21551971208642E-3</v>
+        <v>-1.15725108274402E-3</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -9711,7 +8223,7 @@
         <v>-4.3263644329272238E-4</v>
       </c>
       <c r="J35" s="1">
-        <v>-1.43028220421634E-3</v>
+        <v>-1.34754183481318E-3</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -9743,7 +8255,7 @@
         <v>-4.6274784835986782E-4</v>
       </c>
       <c r="J36" s="1">
-        <v>-1.6272110954697501E-3</v>
+        <v>-1.5209264156750199E-3</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -9775,7 +8287,7 @@
         <v>-4.9164565280079863E-4</v>
       </c>
       <c r="J37" s="1">
-        <v>-1.8125662537987199E-3</v>
+        <v>-1.68324361002945E-3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -9807,7 +8319,7 @@
         <v>-5.4427952272817503E-4</v>
       </c>
       <c r="J38" s="1">
-        <v>-2.0814672707140801E-3</v>
+        <v>-1.91762675893376E-3</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -9839,7 +8351,7 @@
         <v>-5.9506826801225597E-4</v>
       </c>
       <c r="J39" s="1">
-        <v>-2.3550944242404998E-3</v>
+        <v>-2.15565031293782E-3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -9871,7 +8383,7 @@
         <v>-6.762797711417079E-4</v>
       </c>
       <c r="J40" s="1">
-        <v>-2.5678063367255899E-3</v>
+        <v>-2.3409462003589399E-3</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -9903,7 +8415,7 @@
         <v>-7.6160166645422491E-4</v>
       </c>
       <c r="J41" s="1">
-        <v>-2.7625934740382599E-3</v>
+        <v>-2.5121868677271402E-3</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -9935,12 +8447,12 @@
         <v>-8.1519735977053707E-4</v>
       </c>
       <c r="J42" s="1">
-        <v>-2.9833195344037E-3</v>
+        <v>-2.7063777466183199E-3</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>-41.9</v>
+        <v>-42</v>
       </c>
       <c r="B43">
         <v>-3.97342082578689E-5</v>
@@ -9967,7 +8479,7 @@
         <v>-8.6493638809770302E-4</v>
       </c>
       <c r="J43" s="1">
-        <v>-3.4247678159766899E-3</v>
+        <v>-3.1169025786630098E-3</v>
       </c>
     </row>
   </sheetData>
